--- a/Resultados/Escenario 2/costo_merma.xlsx
+++ b/Resultados/Escenario 2/costo_merma.xlsx
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3763930984140619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1868.935600889329</v>
       </c>
     </row>
     <row r="65">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3142.653817496495</v>
       </c>
     </row>
     <row r="79">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1.316000000018244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>4682.958352119219</v>
       </c>
     </row>
     <row r="261">
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>2904.223218872768</v>
       </c>
     </row>
     <row r="289">
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>1.316000000007919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>3.670136725982136e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>2821.151586217756</v>
       </c>
     </row>
     <row r="387">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>8.091010386124253e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>1975.604479074872</v>
       </c>
     </row>
     <row r="541">
@@ -10959,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>2857.49981674661</v>
       </c>
     </row>
     <row r="555">
@@ -11491,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>7552.239049393723</v>
       </c>
     </row>
     <row r="583">
@@ -12080,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>0.07782795697687962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>0.03820645161290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>0.01132043010752688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -12992,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>4.822413758780569e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -13087,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>586.3803842923369</v>
       </c>
     </row>
     <row r="667">
@@ -13144,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>3.949758990630699e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>2.439353526914872e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>7.227714153821841e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.07782795672905282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.03820645148517138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>0.01132043006968041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.3827816238832285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>1.315999993889503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -16184,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>1.680599916061392e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>0</v>
+        <v>4019.381987813516</v>
       </c>
     </row>
     <row r="849">
@@ -17286,7 +17286,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>1.053267624229193e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>0</v>
+        <v>1268.242192336055</v>
       </c>
     </row>
     <row r="891">
@@ -17875,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="E918" t="n">
-        <v>0</v>
+        <v>3346.131077750779</v>
       </c>
     </row>
     <row r="919">
@@ -18673,7 +18673,7 @@
         <v>1</v>
       </c>
       <c r="E960" t="n">
-        <v>0</v>
+        <v>3998.122356809794</v>
       </c>
     </row>
     <row r="961">
@@ -19110,7 +19110,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>1.367464536445873e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="E988" t="n">
-        <v>0</v>
+        <v>325.2525591592178</v>
       </c>
     </row>
     <row r="989">
@@ -19357,7 +19357,7 @@
         <v>1</v>
       </c>
       <c r="E996" t="n">
-        <v>1.315999994028101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -19471,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="E1002" t="n">
-        <v>0</v>
+        <v>1364.228410501255</v>
       </c>
     </row>
     <row r="1003">
@@ -20003,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="E1030" t="n">
-        <v>0</v>
+        <v>4304.848786651712</v>
       </c>
     </row>
     <row r="1031">
@@ -21865,7 +21865,7 @@
         <v>1</v>
       </c>
       <c r="E1128" t="n">
-        <v>0</v>
+        <v>4655.749560341133</v>
       </c>
     </row>
     <row r="1129">
@@ -23613,7 +23613,7 @@
         <v>1</v>
       </c>
       <c r="E1220" t="n">
-        <v>0.192788626893561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221">
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="E1296" t="n">
-        <v>0</v>
+        <v>254.1697132708862</v>
       </c>
     </row>
     <row r="1297">
@@ -25475,7 +25475,7 @@
         <v>1</v>
       </c>
       <c r="E1318" t="n">
-        <v>2.992237568832934e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -26007,7 +26007,7 @@
         <v>1</v>
       </c>
       <c r="E1346" t="n">
-        <v>1.315999991046028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -27337,7 +27337,7 @@
         <v>1</v>
       </c>
       <c r="E1416" t="n">
-        <v>0.1122897168970506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -27603,7 +27603,7 @@
         <v>1</v>
       </c>
       <c r="E1430" t="n">
-        <v>0.3055622579229009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -30795,7 +30795,7 @@
         <v>1</v>
       </c>
       <c r="E1598" t="n">
-        <v>1.045032577164931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1599">
@@ -31118,7 +31118,7 @@
         <v>1</v>
       </c>
       <c r="E1615" t="n">
-        <v>6.330953787544046e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1616">
@@ -34006,7 +34006,7 @@
         <v>1</v>
       </c>
       <c r="E1767" t="n">
-        <v>1.82526491698809e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1768">
@@ -34101,7 +34101,7 @@
         <v>1</v>
       </c>
       <c r="E1772" t="n">
-        <v>0</v>
+        <v>5480.890425459291</v>
       </c>
     </row>
     <row r="1773">
@@ -35602,7 +35602,7 @@
         <v>1</v>
       </c>
       <c r="E1851" t="n">
-        <v>8.424644875049128e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1852">
@@ -35697,7 +35697,7 @@
         <v>1</v>
       </c>
       <c r="E1856" t="n">
-        <v>0</v>
+        <v>1609.077790120329</v>
       </c>
     </row>
     <row r="1857">
@@ -36134,7 +36134,7 @@
         <v>1</v>
       </c>
       <c r="E1879" t="n">
-        <v>1.058055204339326e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880">
@@ -38946,7 +38946,7 @@
         <v>1</v>
       </c>
       <c r="E2027" t="n">
-        <v>3.677702142214561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028">
@@ -38965,7 +38965,7 @@
         <v>1</v>
       </c>
       <c r="E2028" t="n">
-        <v>1.805417415268966e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029">
@@ -38984,7 +38984,7 @@
         <v>1</v>
       </c>
       <c r="E2029" t="n">
-        <v>5.349384934130271e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2030">
@@ -39478,7 +39478,7 @@
         <v>1</v>
       </c>
       <c r="E2055" t="n">
-        <v>5.151367506993909e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056">
@@ -39497,7 +39497,7 @@
         <v>1</v>
       </c>
       <c r="E2056" t="n">
-        <v>2.52885313979701e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057">
@@ -39516,7 +39516,7 @@
         <v>1</v>
       </c>
       <c r="E2057" t="n">
-        <v>7.492898191991139e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2058">
@@ -39858,7 +39858,7 @@
         <v>1</v>
       </c>
       <c r="E2075" t="n">
-        <v>1.881799430437201e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2076">
@@ -42613,7 +42613,7 @@
         <v>1</v>
       </c>
       <c r="E2220" t="n">
-        <v>0</v>
+        <v>3014.589029109307</v>
       </c>
     </row>
     <row r="2221">
@@ -44266,7 +44266,7 @@
         <v>1</v>
       </c>
       <c r="E2307" t="n">
-        <v>4.430139487148089e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308">
@@ -44285,7 +44285,7 @@
         <v>1</v>
       </c>
       <c r="E2308" t="n">
-        <v>4.604478866864674e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2309">
@@ -44304,7 +44304,7 @@
         <v>1</v>
       </c>
       <c r="E2309" t="n">
-        <v>3.941604844800037e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310">
@@ -44741,7 +44741,7 @@
         <v>1</v>
       </c>
       <c r="E2332" t="n">
-        <v>0</v>
+        <v>2468.239475251754</v>
       </c>
     </row>
     <row r="2333">
@@ -46223,7 +46223,7 @@
         <v>1</v>
       </c>
       <c r="E2410" t="n">
-        <v>1.195385228637487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2411">
@@ -47933,7 +47933,7 @@
         <v>1</v>
       </c>
       <c r="E2500" t="n">
-        <v>0</v>
+        <v>4432.567082848099</v>
       </c>
     </row>
     <row r="2501">
@@ -48199,7 +48199,7 @@
         <v>1</v>
       </c>
       <c r="E2514" t="n">
-        <v>0</v>
+        <v>1229.457412972483</v>
       </c>
     </row>
     <row r="2515">
@@ -48465,7 +48465,7 @@
         <v>1</v>
       </c>
       <c r="E2528" t="n">
-        <v>0</v>
+        <v>855.2097034485344</v>
       </c>
     </row>
     <row r="2529">
@@ -48674,7 +48674,7 @@
         <v>1</v>
       </c>
       <c r="E2539" t="n">
-        <v>4.045841713559109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540">
@@ -49529,7 +49529,7 @@
         <v>1</v>
       </c>
       <c r="E2584" t="n">
-        <v>0</v>
+        <v>796.4678197298865</v>
       </c>
     </row>
     <row r="2585">
@@ -49795,7 +49795,7 @@
         <v>1</v>
       </c>
       <c r="E2598" t="n">
-        <v>0</v>
+        <v>1794.788820564169</v>
       </c>
     </row>
     <row r="2599">
@@ -50061,7 +50061,7 @@
         <v>1</v>
       </c>
       <c r="E2612" t="n">
-        <v>0</v>
+        <v>2329.534031879819</v>
       </c>
     </row>
     <row r="2613">
@@ -51068,7 +51068,7 @@
         <v>1</v>
       </c>
       <c r="E2665" t="n">
-        <v>1.981807733187398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2666">
@@ -51562,7 +51562,7 @@
         <v>1</v>
       </c>
       <c r="E2691" t="n">
-        <v>2.058659447357059e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2692">
@@ -51600,7 +51600,7 @@
         <v>1</v>
       </c>
       <c r="E2693" t="n">
-        <v>7.186605084085398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2694">
@@ -52341,7 +52341,7 @@
         <v>1</v>
       </c>
       <c r="E2732" t="n">
-        <v>1.315999996529005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2733">
@@ -52626,7 +52626,7 @@
         <v>1</v>
       </c>
       <c r="E2747" t="n">
-        <v>7.181370165199045e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2748">
@@ -52721,7 +52721,7 @@
         <v>1</v>
       </c>
       <c r="E2752" t="n">
-        <v>0</v>
+        <v>4633.16465046418</v>
       </c>
     </row>
     <row r="2753">
@@ -53158,7 +53158,7 @@
         <v>1</v>
       </c>
       <c r="E2775" t="n">
-        <v>4.720195929919255e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2776">
@@ -53519,7 +53519,7 @@
         <v>1</v>
       </c>
       <c r="E2794" t="n">
-        <v>0</v>
+        <v>6445.263102092667</v>
       </c>
     </row>
     <row r="2795">
@@ -53671,7 +53671,7 @@
         <v>1</v>
       </c>
       <c r="E2802" t="n">
-        <v>0.149298433256016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2803">
@@ -53785,7 +53785,7 @@
         <v>1</v>
       </c>
       <c r="E2808" t="n">
-        <v>0</v>
+        <v>3309.034791540165</v>
       </c>
     </row>
     <row r="2809">
@@ -54051,7 +54051,7 @@
         <v>1</v>
       </c>
       <c r="E2822" t="n">
-        <v>0</v>
+        <v>997.4082471683311</v>
       </c>
     </row>
     <row r="2823">
@@ -54317,7 +54317,7 @@
         <v>1</v>
       </c>
       <c r="E2836" t="n">
-        <v>0</v>
+        <v>622.1786854752754</v>
       </c>
     </row>
     <row r="2837">
@@ -54849,7 +54849,7 @@
         <v>1</v>
       </c>
       <c r="E2864" t="n">
-        <v>0</v>
+        <v>1973.0066266415</v>
       </c>
     </row>
     <row r="2865">
@@ -55115,7 +55115,7 @@
         <v>1</v>
       </c>
       <c r="E2878" t="n">
-        <v>0</v>
+        <v>4120.850790217308</v>
       </c>
     </row>
     <row r="2879">
@@ -55381,7 +55381,7 @@
         <v>1</v>
       </c>
       <c r="E2892" t="n">
-        <v>0</v>
+        <v>4249.656588408524</v>
       </c>
     </row>
     <row r="2893">
@@ -55818,7 +55818,7 @@
         <v>1</v>
       </c>
       <c r="E2915" t="n">
-        <v>1.199534035164972e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2916">
@@ -55856,7 +55856,7 @@
         <v>1</v>
       </c>
       <c r="E2917" t="n">
-        <v>371.6104914285041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2918">
@@ -56863,7 +56863,7 @@
         <v>1</v>
       </c>
       <c r="E2970" t="n">
-        <v>0.5588612965660701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2971">
@@ -59580,7 +59580,7 @@
         <v>1</v>
       </c>
       <c r="E3113" t="n">
-        <v>46.52813473631274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3114">
@@ -60910,7 +60910,7 @@
         <v>1</v>
       </c>
       <c r="E3183" t="n">
-        <v>15.49816494085952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3184">
@@ -61024,7 +61024,7 @@
         <v>1</v>
       </c>
       <c r="E3189" t="n">
-        <v>7.355983553079704e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3190">
@@ -62468,7 +62468,7 @@
         <v>1</v>
       </c>
       <c r="E3265" t="n">
-        <v>1.149962493658701e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3266">
@@ -64368,7 +64368,7 @@
         <v>1</v>
       </c>
       <c r="E3365" t="n">
-        <v>182.0813699534342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3366">
@@ -65394,7 +65394,7 @@
         <v>1</v>
       </c>
       <c r="E3419" t="n">
-        <v>1.054053683017759e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420">
@@ -66553,7 +66553,7 @@
         <v>1</v>
       </c>
       <c r="E3480" t="n">
-        <v>0</v>
+        <v>954.8185091958081</v>
       </c>
     </row>
     <row r="3481">
